--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>9.039999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>27.29</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>22.29</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>141.53</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>27.31</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>11.22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="J3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.72</v>
-      </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.79</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.54</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.01</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="Q4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>56.01</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X6" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Y6" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>67.22</v>
+        <v>6.72</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>22.13</v>
+        <v>2.21</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>28.92</v>
+        <v>2.89</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>112.98</v>
+        <v>11.3</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>25.97</v>
+        <v>2.6</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.42</v>
+        <v>2.94</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>23.96</v>
+        <v>2.4</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>40.02</v>
+        <v>4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>153.02</v>
+        <v>15.3</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>29.39</v>
+        <v>2.94</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.36</v>
+        <v>1.24</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>36.16</v>
+        <v>3.62</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>29.68</v>
+        <v>2.97</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>101.51</v>
+        <v>10.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>20.03</v>
+        <v>2</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>26.93</v>
+        <v>2.69</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40442.59722222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40442.60416666666</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.24</v>
+        <v>32.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40442.61111111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.04</v>
+        <v>40.43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.95</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.98</v>
+        <v>169.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.64</v>
+        <v>36.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.26</v>
+        <v>72.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40442.59722222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>40442.60416666666</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.952</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.95</v>
+        <v>2.946</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>6.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.78</v>
+        <v>5.776</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.73</v>
+        <v>2.725</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.551</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.91</v>
+        <v>3.905</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.285</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.814</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.19</v>
+        <v>2.192</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.781</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.09</v>
+        <v>2.088</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.36</v>
+        <v>32.358</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.363</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.913</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.65</v>
+        <v>4.652</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.439</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.975</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.93</v>
+        <v>2.932</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.818</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.81</v>
+        <v>3.807</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.606999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.453</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>2.8</v>
@@ -863,103 +863,103 @@
         <v>40442.61111111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.63</v>
+        <v>14.625</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.448</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>31.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.6</v>
+        <v>26.604</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.755</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.43</v>
+        <v>40.426</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.95</v>
+        <v>17.952</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.06</v>
+        <v>8.055</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.588</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.89</v>
+        <v>13.893</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.56</v>
+        <v>13.558</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.53</v>
+        <v>3.529</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>11.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.64</v>
+        <v>16.642</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.613</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.81</v>
+        <v>169.809</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.39</v>
+        <v>32.394</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.39</v>
+        <v>10.388</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.73</v>
+        <v>21.727</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.93</v>
+        <v>11.929</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.559</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.81</v>
+        <v>20.814</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>9.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.136</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.39</v>
+        <v>36.388</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.226</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.27</v>
+        <v>13.274</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.62498842592</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.524</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.28</v>
+        <v>14.284</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.96</v>
+        <v>11.958</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.313</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.24</v>
+        <v>23.242</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.1</v>
+        <v>8.096</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>3.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.822</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.54</v>
+        <v>6.538</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.06</v>
+        <v>6.062</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.535</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.57</v>
+        <v>7.572</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.34</v>
+        <v>4.337</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.63</v>
+        <v>72.63500000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.82</v>
+        <v>14.822</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>4.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.91</v>
+        <v>9.911</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.531</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.447</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.19</v>
+        <v>4.192</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.27</v>
+        <v>4.275</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.519</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.31</v>
+        <v>21.307</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.86</v>
+        <v>2.858</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.94</v>
+        <v>5.937</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40442.62498842592</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_36.xlsx
+++ b/DATA_goal/Junction_Flooding_36.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>40442.61805555555</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.524</v>
+        <v>6.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.239</v>
+        <v>5.24</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.386</v>
+        <v>0.39</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.284</v>
+        <v>14.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.958</v>
+        <v>11.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.313</v>
+        <v>5.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.242</v>
+        <v>23.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.096</v>
+        <v>8.1</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>3.67</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.822</v>
+        <v>5.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.538</v>
+        <v>6.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.062</v>
+        <v>6.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.535</v>
+        <v>1.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.033</v>
+        <v>5.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.572</v>
+        <v>7.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.337</v>
+        <v>4.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.63500000000001</v>
+        <v>72.63</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.822</v>
+        <v>14.82</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>4.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.911</v>
+        <v>9.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.531</v>
+        <v>5.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.447</v>
+        <v>11.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.192</v>
+        <v>4.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.275</v>
+        <v>4.27</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.519</v>
+        <v>6.52</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.307</v>
+        <v>21.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.858</v>
+        <v>2.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.937</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40442.62498842592</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.43</v>
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>
